--- a/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st03.xlsx
+++ b/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st03.xlsx
@@ -2156,7 +2156,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ethan"]     Punishment? Oh, you mean the one  where they make me wear a sign that says "I took food from the kitchen"?
+    <t xml:space="preserve">[name="Ethan"]     Punishment? Oh, you mean the one  where they make me wear a sign that says 'I took food from the kitchen'?
 </t>
   </si>
   <si>
@@ -2492,7 +2492,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ethan"]     I called him "Master," is that not respectful enough?
+    <t xml:space="preserve">[name="Ethan"]     I called him 'Master,' is that not respectful enough?
 </t>
   </si>
   <si>
@@ -2504,7 +2504,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ethan"]     That Feline girl named Ensia, she's your "Young Lady," isn't she?
+    <t xml:space="preserve">[name="Ethan"]     That Feline girl named Ensia, she's your 'Young Lady,' isn't she?
 </t>
   </si>
   <si>
@@ -2512,7 +2512,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ethan"]     So that's the "Young Lady." Where's the "Old Lady?"
+    <t xml:space="preserve">[name="Ethan"]     So that's the 'Young Lady.' Where's the 'Old Lady?'
 </t>
   </si>
   <si>
@@ -2740,7 +2740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Vulcan"]     He said he wanted to give Uncle Matterhorn a taste of "aimless youth cuisine," as a token of appreciation.
+    <t xml:space="preserve">[name="Vulcan"]     He said he wanted to give Uncle Matterhorn a taste of 'aimless youth cuisine,' as a token of appreciation.
 </t>
   </si>
   <si>
@@ -2772,7 +2772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Matterhorn"]     Where does he get off calling me "Uncle?"
+    <t xml:space="preserve">[name="Matterhorn"]     Where does he get off calling me 'Uncle?'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st03.xlsx
+++ b/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st03.xlsx
@@ -1860,7 +1860,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">9:50 AM \ Sunny
+    <t xml:space="preserve">9:50 A.M. \ Sunny
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st03.xlsx
+++ b/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st03.xlsx
@@ -3320,7 +3320,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="쿠리어"]     쉐라그에서 일어난 일 때문에 박사님께 볼 일이 있어 급하게 온 거예요. 갑작스럽게 일어난 일이라 마터호른 형님께 알려 드리지도 못했네요.
+    <t xml:space="preserve">[name="쿠리어"]     쉐라그에서 일어난 일 때문에 박사님께 볼 일이 있어 급하게 온 거예요. 갑작스럽게 일어난 일이라 야카 형님께 알려 드리지도 못했네요.
 </t>
   </si>
   <si>
